--- a/Results/ISSOL_201612/Calc/CLM_ER_324_All_Cnn__001.xlsx
+++ b/Results/ISSOL_201612/Calc/CLM_ER_324_All_Cnn__001.xlsx
@@ -1341,7 +1341,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -1375,221 +1375,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1906,7 +1691,7 @@
   <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:Q51"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2026,7 +1811,7 @@
         <v>0.84851224999999997</v>
       </c>
       <c r="T2" s="2">
-        <f>AVERAGE(N2:Q2)</f>
+        <f t="shared" ref="T2:T33" si="0">AVERAGE(N2:Q2)</f>
         <v>0.65144225</v>
       </c>
       <c r="U2" s="7">
@@ -2097,11 +1882,11 @@
         <v>0.60803099999999999</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S51" si="0">AVERAGE(H3:K3)</f>
+        <f t="shared" ref="S3:S51" si="1">AVERAGE(H3:K3)</f>
         <v>0.37421599999999999</v>
       </c>
       <c r="T3" s="2">
-        <f>AVERAGE(N3:Q3)</f>
+        <f t="shared" si="0"/>
         <v>0.63520524999999994</v>
       </c>
       <c r="U3" s="13">
@@ -2172,11 +1957,11 @@
         <v>0.73695600000000006</v>
       </c>
       <c r="S4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38944049999999997</v>
+      </c>
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>0.38944049999999997</v>
-      </c>
-      <c r="T4" s="2">
-        <f>AVERAGE(N4:Q4)</f>
         <v>0.32764025000000002</v>
       </c>
       <c r="U4" s="17">
@@ -2247,11 +2032,11 @@
         <v>0.61954900000000002</v>
       </c>
       <c r="S5" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0908749999999997E-2</v>
+      </c>
+      <c r="T5" s="2">
         <f t="shared" si="0"/>
-        <v>9.0908749999999997E-2</v>
-      </c>
-      <c r="T5" s="2">
-        <f>AVERAGE(N5:Q5)</f>
         <v>0.63893475</v>
       </c>
       <c r="U5" s="21">
@@ -2310,11 +2095,11 @@
         <v>0.54261800000000004</v>
       </c>
       <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27864450000000002</v>
+      </c>
+      <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>0.27864450000000002</v>
-      </c>
-      <c r="T6" s="2">
-        <f>AVERAGE(N6:Q6)</f>
         <v>0.13565450000000001</v>
       </c>
       <c r="U6" s="25">
@@ -2373,11 +2158,11 @@
         <v>0.54261800000000004</v>
       </c>
       <c r="S7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27864450000000002</v>
+      </c>
+      <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>0.27864450000000002</v>
-      </c>
-      <c r="T7" s="2">
-        <f>AVERAGE(N7:Q7)</f>
         <v>0.25806224999999999</v>
       </c>
       <c r="U7" s="25">
@@ -2436,11 +2221,11 @@
         <v>0.43077700000000002</v>
       </c>
       <c r="S8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34148200000000001</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="0"/>
-        <v>0.34148200000000001</v>
-      </c>
-      <c r="T8" s="2">
-        <f>AVERAGE(N8:Q8)</f>
         <v>0.43599224999999997</v>
       </c>
       <c r="U8" s="31">
@@ -2499,11 +2284,11 @@
         <v>0.43077700000000002</v>
       </c>
       <c r="S9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34078399999999998</v>
+      </c>
+      <c r="T9" s="2">
         <f t="shared" si="0"/>
-        <v>0.34078399999999998</v>
-      </c>
-      <c r="T9" s="2">
-        <f>AVERAGE(N9:Q9)</f>
         <v>0.42115649999999999</v>
       </c>
       <c r="U9" s="31">
@@ -2562,11 +2347,11 @@
         <v>0.60352300000000003</v>
       </c>
       <c r="S10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3553499999999997E-2</v>
+      </c>
+      <c r="T10" s="2">
         <f t="shared" si="0"/>
-        <v>5.3553499999999997E-2</v>
-      </c>
-      <c r="T10" s="2">
-        <f>AVERAGE(N10:Q10)</f>
         <v>0.66733025000000001</v>
       </c>
       <c r="U10" s="37">
@@ -2625,11 +2410,11 @@
         <v>0.58355900000000005</v>
       </c>
       <c r="S11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.145594</v>
+      </c>
+      <c r="T11" s="2">
         <f t="shared" si="0"/>
-        <v>0.145594</v>
-      </c>
-      <c r="T11" s="2">
-        <f>AVERAGE(N11:Q11)</f>
         <v>0.58366550000000006</v>
       </c>
       <c r="U11" s="41">
@@ -2688,11 +2473,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29623474999999999</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" si="0"/>
-        <v>0.29623474999999999</v>
-      </c>
-      <c r="T12" s="2">
-        <f>AVERAGE(N12:Q12)</f>
         <v>5.0557499999999998E-2</v>
       </c>
       <c r="U12" s="45">
@@ -2751,11 +2536,11 @@
         <v>0.35532399999999997</v>
       </c>
       <c r="S13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62395299999999998</v>
+      </c>
+      <c r="T13" s="2">
         <f t="shared" si="0"/>
-        <v>0.62395299999999998</v>
-      </c>
-      <c r="T13" s="2">
-        <f>AVERAGE(N13:Q13)</f>
         <v>0.22863924999999999</v>
       </c>
       <c r="U13" s="49">
@@ -2814,11 +2599,11 @@
         <v>0.355323</v>
       </c>
       <c r="S14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50771774999999997</v>
+      </c>
+      <c r="T14" s="2">
         <f t="shared" si="0"/>
-        <v>0.50771774999999997</v>
-      </c>
-      <c r="T14" s="2">
-        <f>AVERAGE(N14:Q14)</f>
         <v>0.22797400000000001</v>
       </c>
       <c r="U14" s="52">
@@ -2877,11 +2662,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3553499999999997E-2</v>
+      </c>
+      <c r="T15" s="2">
         <f t="shared" si="0"/>
-        <v>5.3553499999999997E-2</v>
-      </c>
-      <c r="T15" s="2">
-        <f>AVERAGE(N15:Q15)</f>
         <v>0.13831099999999999</v>
       </c>
       <c r="U15" s="37">
@@ -2940,11 +2725,11 @@
         <v>0.43294899999999997</v>
       </c>
       <c r="S16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41864250000000003</v>
+      </c>
+      <c r="T16" s="2">
         <f t="shared" si="0"/>
-        <v>0.41864250000000003</v>
-      </c>
-      <c r="T16" s="2">
-        <f>AVERAGE(N16:Q16)</f>
         <v>0.42122200000000004</v>
       </c>
       <c r="U16" s="56">
@@ -3003,11 +2788,11 @@
         <v>0.689863</v>
       </c>
       <c r="S17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.145594</v>
+      </c>
+      <c r="T17" s="2">
         <f t="shared" si="0"/>
-        <v>0.145594</v>
-      </c>
-      <c r="T17" s="2">
-        <f>AVERAGE(N17:Q17)</f>
         <v>0.69809600000000005</v>
       </c>
       <c r="U17" s="41">
@@ -3066,11 +2851,11 @@
         <v>0.63281299999999996</v>
       </c>
       <c r="S18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68911074999999999</v>
+      </c>
+      <c r="T18" s="2">
         <f t="shared" si="0"/>
-        <v>0.68911074999999999</v>
-      </c>
-      <c r="T18" s="2">
-        <f>AVERAGE(N18:Q18)</f>
         <v>0.59962700000000002</v>
       </c>
       <c r="U18" s="61">
@@ -3129,11 +2914,11 @@
         <v>0.14118800000000001</v>
       </c>
       <c r="S19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13350624999999999</v>
+      </c>
+      <c r="T19" s="2">
         <f t="shared" si="0"/>
-        <v>0.13350624999999999</v>
-      </c>
-      <c r="T19" s="2">
-        <f>AVERAGE(N19:Q19)</f>
         <v>8.4067000000000003E-2</v>
       </c>
       <c r="U19" s="64">
@@ -3192,11 +2977,11 @@
         <v>0.40084599999999998</v>
       </c>
       <c r="S20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21127974999999999</v>
+      </c>
+      <c r="T20" s="2">
         <f t="shared" si="0"/>
-        <v>0.21127974999999999</v>
-      </c>
-      <c r="T20" s="2">
-        <f>AVERAGE(N20:Q20)</f>
         <v>0.23418125000000001</v>
       </c>
       <c r="U20" s="68">
@@ -3255,11 +3040,11 @@
         <v>5.9531000000000001E-2</v>
       </c>
       <c r="S21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19347600000000001</v>
+      </c>
+      <c r="T21" s="2">
         <f t="shared" si="0"/>
-        <v>0.19347600000000001</v>
-      </c>
-      <c r="T21" s="2">
-        <f>AVERAGE(N21:Q21)</f>
         <v>0.15806324999999999</v>
       </c>
       <c r="U21" s="72">
@@ -3318,11 +3103,11 @@
         <v>0.38331100000000001</v>
       </c>
       <c r="S22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75732949999999999</v>
+      </c>
+      <c r="T22" s="2">
         <f t="shared" si="0"/>
-        <v>0.75732949999999999</v>
-      </c>
-      <c r="T22" s="2">
-        <f>AVERAGE(N22:Q22)</f>
         <v>0.23265750000000002</v>
       </c>
       <c r="U22" s="75">
@@ -3381,11 +3166,11 @@
         <v>0.689863</v>
       </c>
       <c r="S23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64659925000000007</v>
+      </c>
+      <c r="T23" s="2">
         <f t="shared" si="0"/>
-        <v>0.64659925000000007</v>
-      </c>
-      <c r="T23" s="2">
-        <f>AVERAGE(N23:Q23)</f>
         <v>0.68674049999999998</v>
       </c>
       <c r="U23" s="79">
@@ -3444,11 +3229,11 @@
         <v>0.63281299999999996</v>
       </c>
       <c r="S24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18046699999999999</v>
+      </c>
+      <c r="T24" s="2">
         <f t="shared" si="0"/>
-        <v>0.18046699999999999</v>
-      </c>
-      <c r="T24" s="2">
-        <f>AVERAGE(N24:Q24)</f>
         <v>0.58259799999999995</v>
       </c>
       <c r="U24" s="83">
@@ -3507,11 +3292,11 @@
         <v>0.14118800000000001</v>
       </c>
       <c r="S25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36277375000000001</v>
+      </c>
+      <c r="T25" s="2">
         <f t="shared" si="0"/>
-        <v>0.36277375000000001</v>
-      </c>
-      <c r="T25" s="2">
-        <f>AVERAGE(N25:Q25)</f>
         <v>4.9019525000000001E-2</v>
       </c>
       <c r="U25" s="87">
@@ -3570,11 +3355,11 @@
         <v>5.9751800000000001E-2</v>
       </c>
       <c r="S26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36757850000000003</v>
+      </c>
+      <c r="T26" s="2">
         <f t="shared" si="0"/>
-        <v>0.36757850000000003</v>
-      </c>
-      <c r="T26" s="2">
-        <f>AVERAGE(N26:Q26)</f>
         <v>0.13349720000000001</v>
       </c>
       <c r="U26" s="90">
@@ -3633,11 +3418,11 @@
         <v>0.40084599999999998</v>
       </c>
       <c r="S27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36564350000000001</v>
+      </c>
+      <c r="T27" s="2">
         <f t="shared" si="0"/>
-        <v>0.36564350000000001</v>
-      </c>
-      <c r="T27" s="2">
-        <f>AVERAGE(N27:Q27)</f>
         <v>0.22471975</v>
       </c>
       <c r="U27" s="87">
@@ -3696,11 +3481,11 @@
         <v>0.38331100000000001</v>
       </c>
       <c r="S28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22888849999999999</v>
+      </c>
+      <c r="T28" s="2">
         <f t="shared" si="0"/>
-        <v>0.22888849999999999</v>
-      </c>
-      <c r="T28" s="2">
-        <f>AVERAGE(N28:Q28)</f>
         <v>0.21927750000000001</v>
       </c>
       <c r="U28" s="94">
@@ -3759,11 +3544,11 @@
         <v>0.57610600000000001</v>
       </c>
       <c r="S29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2240355</v>
+      </c>
+      <c r="T29" s="2">
         <f t="shared" si="0"/>
-        <v>0.2240355</v>
-      </c>
-      <c r="T29" s="2">
-        <f>AVERAGE(N29:Q29)</f>
         <v>0.378446</v>
       </c>
       <c r="U29" s="97">
@@ -3822,11 +3607,11 @@
         <v>0.44318200000000002</v>
       </c>
       <c r="S30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75482775000000002</v>
+      </c>
+      <c r="T30" s="2">
         <f t="shared" si="0"/>
-        <v>0.75482775000000002</v>
-      </c>
-      <c r="T30" s="2">
-        <f>AVERAGE(N30:Q30)</f>
         <v>0.42584099999999997</v>
       </c>
       <c r="U30" s="75">
@@ -3885,11 +3670,11 @@
         <v>0.73607100000000003</v>
       </c>
       <c r="S31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63501625000000006</v>
+      </c>
+      <c r="T31" s="2">
         <f t="shared" si="0"/>
-        <v>0.63501625000000006</v>
-      </c>
-      <c r="T31" s="2">
-        <f>AVERAGE(N31:Q31)</f>
         <v>0.7194275</v>
       </c>
       <c r="U31" s="101">
@@ -3948,11 +3733,11 @@
         <v>0.65471800000000002</v>
       </c>
       <c r="S32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13892012500000001</v>
+      </c>
+      <c r="T32" s="2">
         <f t="shared" si="0"/>
-        <v>0.13892012500000001</v>
-      </c>
-      <c r="T32" s="2">
-        <f>AVERAGE(N32:Q32)</f>
         <v>0.61109399999999992</v>
       </c>
       <c r="U32" s="104">
@@ -4011,11 +3796,11 @@
         <v>0.21274999999999999</v>
       </c>
       <c r="S33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35073925</v>
+      </c>
+      <c r="T33" s="2">
         <f t="shared" si="0"/>
-        <v>0.35073925</v>
-      </c>
-      <c r="T33" s="2">
-        <f>AVERAGE(N33:Q33)</f>
         <v>0.10172125</v>
       </c>
       <c r="U33" s="108">
@@ -4074,11 +3859,11 @@
         <v>0.47492800000000002</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35381974999999999</v>
       </c>
       <c r="T34" s="2">
-        <f>AVERAGE(N34:Q34)</f>
+        <f t="shared" ref="T34:T51" si="2">AVERAGE(N34:Q34)</f>
         <v>0.25287175000000001</v>
       </c>
       <c r="U34" s="112">
@@ -4121,11 +3906,11 @@
         <v>0.45834900000000001</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38579475000000002</v>
       </c>
       <c r="T35" s="2">
-        <f>AVERAGE(N35:Q35)</f>
+        <f t="shared" si="2"/>
         <v>0.25354450000000001</v>
       </c>
       <c r="U35" s="116">
@@ -4168,11 +3953,11 @@
         <v>0.45034800000000003</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21916275000000002</v>
       </c>
       <c r="T36" s="2">
-        <f>AVERAGE(N36:Q36)</f>
+        <f t="shared" si="2"/>
         <v>0.25661149999999999</v>
       </c>
       <c r="U36" s="118">
@@ -4215,11 +4000,11 @@
         <v>0.73607100000000003</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75353150000000002</v>
       </c>
       <c r="T37" s="2">
-        <f>AVERAGE(N37:Q37)</f>
+        <f t="shared" si="2"/>
         <v>0.7119955</v>
       </c>
       <c r="U37" s="75">
@@ -4262,11 +4047,11 @@
         <v>0.65471800000000002</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63454049999999995</v>
       </c>
       <c r="T38" s="2">
-        <f>AVERAGE(N38:Q38)</f>
+        <f t="shared" si="2"/>
         <v>0.60147050000000002</v>
       </c>
       <c r="U38" s="101">
@@ -4309,11 +4094,11 @@
         <v>0.21274999999999999</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12550050000000001</v>
       </c>
       <c r="T39" s="2">
-        <f>AVERAGE(N39:Q39)</f>
+        <f t="shared" si="2"/>
         <v>9.9684749999999989E-2</v>
       </c>
       <c r="U39" s="123">
@@ -4356,11 +4141,11 @@
         <v>0.45834900000000001</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34489899999999996</v>
       </c>
       <c r="T40" s="2">
-        <f>AVERAGE(N40:Q40)</f>
+        <f t="shared" si="2"/>
         <v>0.24405550000000001</v>
       </c>
       <c r="U40" s="127">
@@ -4403,11 +4188,11 @@
         <v>0.47492800000000002</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.386656</v>
       </c>
       <c r="T41" s="2">
-        <f>AVERAGE(N41:Q41)</f>
+        <f t="shared" si="2"/>
         <v>0.25003600000000004</v>
       </c>
       <c r="U41" s="116">
@@ -4450,11 +4235,11 @@
         <v>0.45034800000000003</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34833625000000001</v>
       </c>
       <c r="T42" s="2">
-        <f>AVERAGE(N42:Q42)</f>
+        <f t="shared" si="2"/>
         <v>0.24389100000000002</v>
       </c>
       <c r="U42" s="130">
@@ -4497,11 +4282,11 @@
         <v>0.483732</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75888199999999995</v>
       </c>
       <c r="T43" s="2">
-        <f>AVERAGE(N43:Q43)</f>
+        <f t="shared" si="2"/>
         <v>0.32602199999999998</v>
       </c>
       <c r="U43" s="75">
@@ -4544,11 +4329,11 @@
         <v>0.74746999999999997</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64808524999999995</v>
       </c>
       <c r="T44" s="2">
-        <f>AVERAGE(N44:Q44)</f>
+        <f t="shared" si="2"/>
         <v>0.71237574999999997</v>
       </c>
       <c r="U44" s="134">
@@ -4591,11 +4376,11 @@
         <v>0.66256999999999999</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14291075</v>
       </c>
       <c r="T45" s="2">
-        <f>AVERAGE(N45:Q45)</f>
+        <f t="shared" si="2"/>
         <v>0.59682049999999998</v>
       </c>
       <c r="U45" s="137">
@@ -4638,11 +4423,11 @@
         <v>0.237593</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39036999999999999</v>
       </c>
       <c r="T46" s="2">
-        <f>AVERAGE(N46:Q46)</f>
+        <f t="shared" si="2"/>
         <v>7.3120774999999999E-2</v>
       </c>
       <c r="U46" s="141">
@@ -4685,11 +4470,11 @@
         <v>0.48377799999999999</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35725949999999995</v>
       </c>
       <c r="T47" s="2">
-        <f>AVERAGE(N47:Q47)</f>
+        <f t="shared" si="2"/>
         <v>0.23688999999999999</v>
       </c>
       <c r="U47" s="145">
@@ -4732,11 +4517,11 @@
         <v>0.48377799999999999</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35606074999999998</v>
       </c>
       <c r="T48" s="2">
-        <f>AVERAGE(N48:Q48)</f>
+        <f t="shared" si="2"/>
         <v>0.24439424999999998</v>
       </c>
       <c r="U48" s="112">
@@ -4779,11 +4564,11 @@
         <v>0.47982900000000001</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4712075</v>
       </c>
       <c r="T49" s="2">
-        <f>AVERAGE(N49:Q49)</f>
+        <f t="shared" si="2"/>
         <v>0.2444655</v>
       </c>
       <c r="U49" s="148">
@@ -4826,11 +4611,11 @@
         <v>0.475273</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82148874999999999</v>
       </c>
       <c r="T50" s="2">
-        <f>AVERAGE(N50:Q50)</f>
+        <f t="shared" si="2"/>
         <v>0.32090000000000002</v>
       </c>
       <c r="U50" s="75">
@@ -4873,11 +4658,11 @@
         <v>0.475273</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80510700000000002</v>
       </c>
       <c r="T51" s="2">
-        <f>AVERAGE(N51:Q51)</f>
+        <f t="shared" si="2"/>
         <v>0.33449875000000001</v>
       </c>
       <c r="U51" s="75">
